--- a/assets/JCPL 3 Schedule V3 (1).xlsx
+++ b/assets/JCPL 3 Schedule V3 (1).xlsx
@@ -34,99 +34,96 @@
     <t xml:space="preserve">Team 1</t>
   </si>
   <si>
+    <t xml:space="preserve">8th January</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:40PM – 03PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yogic Dhurandars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triphobo Trail Blazers</t>
+  </si>
+  <si>
     <t xml:space="preserve">10th January</t>
   </si>
   <si>
+    <t xml:space="preserve">08AM - 09AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalnex Dominator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiery Sun Warriors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09AM - 10AM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Mangoman </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Housewise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10AM - 11AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Powerpoint </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Pictonion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04PM - 05PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05PM - 06PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalnex Dominators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06PM - 07PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inergy Strikers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jade 4 Lions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07PM - 08PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Powerpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08PM - 09PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Housewise </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09PM - 10PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBCC Titans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Mentomap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11th January</t>
+  </si>
+  <si>
     <t xml:space="preserve">07AM - 08AM</t>
   </si>
   <si>
-    <t xml:space="preserve">Mens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yogic Dhurandars </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Triphobo Trail Blazers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08AM - 09AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dalnex Dominators </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiery Sun Warriors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09AM - 10AM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team Mangoman </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team Housewise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10AM - 11AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team Powerpoint </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team Pictonion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04PM - 05PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Triphobo Trail Blazers </t>
-  </si>
-  <si>
-    <t xml:space="preserve">05PM - 06PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dalnex Dominators</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06PM - 07PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inergy Strikers </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jade 4 Lions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07PM - 08PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team Powerpoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08PM - 09PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBCC Titans </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team Mentomap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09PM - 10PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team Housewise </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11th January</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inergy Strikers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBCC Titans</t>
-  </si>
-  <si>
     <t xml:space="preserve">16th January</t>
   </si>
   <si>
@@ -142,43 +139,46 @@
     <t xml:space="preserve">Boys</t>
   </si>
   <si>
-    <t xml:space="preserve"> D1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4</t>
+    <t xml:space="preserve">Jade Infernos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jade Red Dragons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phantom Legions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jade Dominators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10PM – 11PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Womens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jade Unicorns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jade Cardinals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strike Queens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sapphire Titans</t>
   </si>
   <si>
     <t xml:space="preserve">17th January</t>
   </si>
   <si>
-    <t xml:space="preserve">Fiery Sun Warriors </t>
-  </si>
-  <si>
     <t xml:space="preserve">Team Pictonion </t>
   </si>
   <si>
-    <t xml:space="preserve">03PM - 04PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Womens</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jade Unicorns </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jade Cardinals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strike Queens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sapphire Titans</t>
+    <t xml:space="preserve">Jade Unicorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jade Cardinal</t>
   </si>
   <si>
     <t xml:space="preserve">10PM - 11PM</t>
@@ -187,13 +187,13 @@
     <t xml:space="preserve">18th January</t>
   </si>
   <si>
-    <t xml:space="preserve">D1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Semi Finals 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Semi Finals 2</t>
+    <t xml:space="preserve">Jade Cardinals </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Semi Final1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Semi Final2</t>
   </si>
   <si>
     <t xml:space="preserve">Finalist 1</t>
@@ -241,7 +241,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,8 +260,26 @@
         <bgColor rgb="FFC1E5F5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7A81FF"/>
+        <bgColor rgb="FF666699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD579"/>
+        <bgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8AD8"/>
+        <bgColor rgb="FFFF8080"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -271,16 +289,37 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right/>
+      <right style="thin"/>
       <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right/>
+      <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -292,15 +331,8 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin"/>
+      <right/>
       <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -330,7 +362,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -340,54 +372,66 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -395,11 +439,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -438,7 +478,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF7A81FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
@@ -459,9 +499,9 @@
       <rgbColor rgb="FFC2F1C8"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFF8AD8"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFD579"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -490,11 +530,13 @@
   </sheetPr>
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4068" ySplit="0" topLeftCell="D1" activePane="topLeft" state="split"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="10.56"/>
@@ -503,7 +545,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.56"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -518,7 +560,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -535,77 +577,77 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>20</v>
@@ -620,9 +662,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>22</v>
@@ -637,9 +679,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
@@ -648,15 +690,15 @@
         <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>27</v>
@@ -664,87 +706,87 @@
       <c r="C10" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>6</v>
@@ -752,28 +794,28 @@
       <c r="D15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>28</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>32</v>
       </c>
@@ -784,13 +826,13 @@
         <v>6</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>32</v>
       </c>
@@ -801,13 +843,13 @@
         <v>6</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>32</v>
       </c>
@@ -818,13 +860,13 @@
         <v>6</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>32</v>
       </c>
@@ -835,18 +877,18 @@
         <v>6</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>6</v>
@@ -854,234 +896,234 @@
       <c r="D21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="E22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="E23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="E25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="1" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="D26" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="1" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="12" t="s">
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>44</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>20</v>
@@ -1089,16 +1131,16 @@
       <c r="C35" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="10" t="s">
+      <c r="D35" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>22</v>
@@ -1106,16 +1148,16 @@
       <c r="C36" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>25</v>
@@ -1123,67 +1165,67 @@
       <c r="C37" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>33</v>
+      <c r="D37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="13" t="s">
         <v>51</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C39" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="11" t="s">
+      <c r="D40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>53</v>
@@ -1191,45 +1233,45 @@
       <c r="C41" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" s="10" t="s">
+      <c r="D41" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>54</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C42" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E42" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>54</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="14" t="s">
-        <v>42</v>
+      <c r="E43" s="16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1237,16 +1279,16 @@
         <v>54</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C44" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1254,70 +1296,70 @@
         <v>54</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>54</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>54</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E47" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>54</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D48" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>54</v>
       </c>
@@ -1325,16 +1367,16 @@
         <v>20</v>
       </c>
       <c r="C49" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="E49" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>54</v>
       </c>
@@ -1342,16 +1384,16 @@
         <v>22</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D50" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>54</v>
       </c>
@@ -1361,10 +1403,10 @@
       <c r="C51" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D51" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E51" s="21" t="s">
         <v>59</v>
       </c>
     </row>

--- a/assets/JCPL 3 Schedule V3 (1).xlsx
+++ b/assets/JCPL 3 Schedule V3 (1).xlsx
@@ -34,10 +34,40 @@
     <t xml:space="preserve">Team 1</t>
   </si>
   <si>
-    <t xml:space="preserve">8th January</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02:40PM – 03PM</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> January</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">03:30PM – 04PM</t>
   </si>
   <si>
     <t xml:space="preserve">Mens</t>
@@ -209,7 +239,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -231,6 +261,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -447,7 +485,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -531,8 +569,8 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4068" ySplit="0" topLeftCell="D1" activePane="topLeft" state="split"/>
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <pane xSplit="3948" ySplit="0" topLeftCell="D1" activePane="topLeft" state="split"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>

--- a/assets/JCPL 3 Schedule V3 (1).xlsx
+++ b/assets/JCPL 3 Schedule V3 (1).xlsx
@@ -42,7 +42,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8</t>
+      <t xml:space="preserve">10</t>
     </r>
     <r>
       <rPr>
@@ -67,7 +67,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">03:30PM – 04PM</t>
+    <t xml:space="preserve">07AM - 08AM </t>
   </si>
   <si>
     <t xml:space="preserve">Mens</t>
@@ -569,8 +569,8 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3948" ySplit="0" topLeftCell="D1" activePane="topLeft" state="split"/>
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <pane xSplit="3924" ySplit="0" topLeftCell="D1" activePane="topLeft" state="split"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>

--- a/assets/JCPL 3 Schedule V3 (1).xlsx
+++ b/assets/JCPL 3 Schedule V3 (1).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="64">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -157,6 +157,9 @@
     <t xml:space="preserve">16th January</t>
   </si>
   <si>
+    <t xml:space="preserve">06PM – 08PM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Girls</t>
   </si>
   <si>
@@ -205,6 +208,9 @@
     <t xml:space="preserve">Team Pictonion </t>
   </si>
   <si>
+    <t xml:space="preserve">03PM-04PM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jade Unicorn</t>
   </si>
   <si>
@@ -217,19 +223,25 @@
     <t xml:space="preserve">18th January</t>
   </si>
   <si>
-    <t xml:space="preserve">Jade Cardinals </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Semi Final1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Semi Final2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finalist 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finalist 2</t>
+    <t xml:space="preserve">09AM – 10AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semi Final1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11AM-12AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semi Final2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalist1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalist2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08PM – 09PM</t>
   </si>
 </sst>
 </file>
@@ -239,7 +251,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -268,14 +280,6 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -317,7 +321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -367,13 +371,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -400,7 +397,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -467,26 +464,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -566,12 +543,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3924" ySplit="0" topLeftCell="D1" activePane="topLeft" state="split"/>
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E49" activeCellId="0" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -943,16 +918,16 @@
         <v>34</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -960,16 +935,16 @@
         <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -977,16 +952,16 @@
         <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -994,16 +969,16 @@
         <v>34</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>37</v>
+        <v>6</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1011,16 +986,16 @@
         <v>34</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>39</v>
+        <v>45</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1028,123 +1003,123 @@
         <v>34</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>46</v>
+        <v>6</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>48</v>
+        <v>6</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>30</v>
+      <c r="D30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>23</v>
+        <v>39</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>19</v>
@@ -1161,7 +1136,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>20</v>
@@ -1178,7 +1153,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>22</v>
@@ -1195,7 +1170,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>25</v>
@@ -1212,41 +1187,41 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>29</v>
@@ -1263,16 +1238,16 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>24</v>
@@ -1280,92 +1255,92 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="18" t="s">
-        <v>42</v>
+      <c r="D42" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="16" t="s">
-        <v>48</v>
+      <c r="D44" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>56</v>
+        <v>36</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>16</v>
@@ -1373,79 +1348,96 @@
       <c r="C47" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>57</v>
+      <c r="D47" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48" s="21" t="s">
-        <v>59</v>
+        <v>6</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>59</v>
+        <v>36</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>59</v>
+        <v>45</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
